--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-535246.7236876886</v>
+        <v>-542257.4528036835</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>119.8203946813685</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>19.150355670238</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -725,7 +725,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>132.3790353712405</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>95.13408206765017</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>176.0033202190744</v>
+        <v>220.7637744775901</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>84.8231007966457</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>47.87169938983952</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1029,7 +1029,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>22.78476950182667</v>
+        <v>132.4064943964994</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>130.1622329381523</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>274.6557502354936</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>372.4089305243873</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>221.006480722057</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>151.4695191109944</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>33.63717148502366</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>128.2709317591374</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1382,13 +1382,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>100.6675882927505</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.00137743298373</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>63.83940654028886</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.695166096341131</v>
       </c>
       <c r="U14" t="n">
-        <v>129.8683418656373</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>72.86028473649785</v>
+        <v>35.74634462369239</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135904</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412924</v>
@@ -2336,7 +2336,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325497</v>
@@ -2542,7 +2542,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211824</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -2807,10 +2807,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548577</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414332</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404344</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007176</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035417</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.0855074921939</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507301</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484028</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723241</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380445</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497638</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.6707049994323</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662029</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530675</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815727</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227887</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619107</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.062300156464</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838877</v>
+        <v>24.17382596574961</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828889</v>
+        <v>52.06849973564974</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970372</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086852</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158947</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431722</v>
+        <v>70.57601873167806</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459962</v>
+        <v>55.72314698196047</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643935</v>
+        <v>41.29686219380019</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931846</v>
+        <v>41.22330424667931</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908573</v>
+        <v>42.97275566644657</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147786</v>
+        <v>53.79159358883871</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804991</v>
+        <v>41.14384575541075</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922184</v>
+        <v>18.98356133658268</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367775</v>
+        <v>9.8820597010386</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920507</v>
+        <v>88.00800320656592</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.581941540738</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546738</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754239</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221365</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>774.9962245128074</v>
+        <v>972.603888421782</v>
       </c>
       <c r="C2" t="n">
-        <v>774.9962245128074</v>
+        <v>579.4283869247126</v>
       </c>
       <c r="D2" t="n">
-        <v>389.5550957294752</v>
+        <v>579.4283869247126</v>
       </c>
       <c r="E2" t="n">
-        <v>389.5550957294752</v>
+        <v>579.4283869247126</v>
       </c>
       <c r="F2" t="n">
-        <v>376.701061299857</v>
+        <v>162.5339484546904</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J2" t="n">
-        <v>180.5787412169569</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K2" t="n">
-        <v>180.5787412169569</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="L2" t="n">
-        <v>673.8990329354857</v>
+        <v>534.8235384748672</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354857</v>
+        <v>588.487006042433</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572948</v>
+        <v>1102.08968465212</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465276</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675971</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S2" t="n">
-        <v>2155.439176131445</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="T2" t="n">
-        <v>1931.938573690862</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="U2" t="n">
-        <v>1931.938573690862</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="V2" t="n">
-        <v>1931.938573690862</v>
+        <v>1733.055528520438</v>
       </c>
       <c r="W2" t="n">
-        <v>1560.93953865915</v>
+        <v>1362.056493488725</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.486933592206</v>
+        <v>972.603888421782</v>
       </c>
       <c r="Y2" t="n">
-        <v>774.9962245128074</v>
+        <v>972.603888421782</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>790.7440950022726</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="C3" t="n">
-        <v>640.0898645623648</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D3" t="n">
-        <v>510.0008971838452</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>376.2846998391577</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>251.8528937222895</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>131.793075794154</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475493</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475493</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475493</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475493</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="M3" t="n">
-        <v>581.7544444048472</v>
+        <v>987.9600536479797</v>
       </c>
       <c r="N3" t="n">
-        <v>1120.013229414939</v>
+        <v>1501.562732257667</v>
       </c>
       <c r="O3" t="n">
-        <v>1636.53351200592</v>
+        <v>1669.540969100522</v>
       </c>
       <c r="P3" t="n">
-        <v>2042.154880722318</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S3" t="n">
-        <v>2150.865926635811</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>1973.882114834719</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U3" t="n">
-        <v>1763.818971513361</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="V3" t="n">
-        <v>1541.278969884428</v>
+        <v>1306.72766086347</v>
       </c>
       <c r="W3" t="n">
-        <v>1311.161724017715</v>
+        <v>1210.632628471904</v>
       </c>
       <c r="X3" t="n">
-        <v>1121.854646367727</v>
+        <v>1021.325550821916</v>
       </c>
       <c r="Y3" t="n">
-        <v>942.540429443234</v>
+        <v>842.0113338974229</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>643.2605610344658</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="C4" t="n">
-        <v>643.2605610344658</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="D4" t="n">
-        <v>487.6274479369806</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="E4" t="n">
-        <v>332.0686357961831</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="F4" t="n">
-        <v>332.0686357961831</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="G4" t="n">
-        <v>332.0686357961831</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="U4" t="n">
-        <v>643.2605610344658</v>
+        <v>596.0555683369423</v>
       </c>
       <c r="V4" t="n">
-        <v>643.2605610344658</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="W4" t="n">
-        <v>643.2605610344658</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="X4" t="n">
-        <v>643.2605610344658</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.2605610344658</v>
+        <v>330.0762231577665</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>909.5863235854197</v>
+        <v>999.032655102558</v>
       </c>
       <c r="C5" t="n">
-        <v>516.4108220883502</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="D5" t="n">
-        <v>516.4108220883502</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="E5" t="n">
-        <v>113.8272972048947</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="F5" t="n">
-        <v>100.9732627752765</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G5" t="n">
-        <v>91.85091130368374</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475493</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L5" t="n">
-        <v>1011.639023694377</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M5" t="n">
-        <v>1549.89780870447</v>
+        <v>1193.075989993383</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.89780870447</v>
+        <v>1193.075989993383</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596798</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675971</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737746</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297163</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.529637731762</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="V5" t="n">
-        <v>1695.529637731762</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.529637731762</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="X5" t="n">
-        <v>1306.077032664818</v>
+        <v>1481.203263976548</v>
       </c>
       <c r="Y5" t="n">
-        <v>909.5863235854197</v>
+        <v>1084.71255489715</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>632.5119955688347</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>481.8577651289269</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>351.7687977504073</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>215.322306861295</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284334</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>581.7451171265811</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="M6" t="n">
-        <v>1120.003902136673</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146766</v>
+        <v>1155.938290490834</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737746</v>
+        <v>1669.540969100522</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734588</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1605.586872079923</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1383.04687045099</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1152.929624584277</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>963.6225469342887</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>784.308330009796</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.974210433261</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="C7" t="n">
-        <v>198.974210433261</v>
+        <v>772.7451513638799</v>
       </c>
       <c r="D7" t="n">
-        <v>198.974210433261</v>
+        <v>617.1120382663946</v>
       </c>
       <c r="E7" t="n">
-        <v>198.974210433261</v>
+        <v>461.5532261255971</v>
       </c>
       <c r="F7" t="n">
-        <v>198.974210433261</v>
+        <v>461.5532261255971</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475493</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U7" t="n">
-        <v>667.5126311933845</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V7" t="n">
-        <v>667.5126311933845</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="W7" t="n">
-        <v>384.1822291245622</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="X7" t="n">
-        <v>384.1822291245622</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="Y7" t="n">
-        <v>384.1822291245622</v>
+        <v>942.9502692978907</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>824.0408438235784</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="C8" t="n">
-        <v>430.8653423265089</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D8" t="n">
-        <v>430.8653423265089</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4805,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>318.7636682303387</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1595.534624566688</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1224.535589534975</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1224.535589534975</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1224.535589534975</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>560.7358901343441</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="C10" t="n">
-        <v>560.7358901343441</v>
+        <v>233.3243533729269</v>
       </c>
       <c r="D10" t="n">
-        <v>405.1027770368589</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>249.5439648960614</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>745.9439088256454</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V10" t="n">
-        <v>745.9439088256454</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="W10" t="n">
-        <v>745.9439088256454</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="X10" t="n">
-        <v>745.9439088256454</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="Y10" t="n">
-        <v>745.9439088256454</v>
+        <v>386.3238676264566</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1500.043609187504</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1370.477011451001</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G11" t="n">
         <v>380.9467447527722</v>
@@ -5069,22 +5069,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2770.29560349218</v>
       </c>
       <c r="V11" t="n">
-        <v>3004.271952586837</v>
+        <v>2770.29560349218</v>
       </c>
       <c r="W11" t="n">
-        <v>3004.271952586837</v>
+        <v>2471.092843606661</v>
       </c>
       <c r="X11" t="n">
-        <v>2686.615622666087</v>
+        <v>2153.436513685911</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732882</v>
+        <v>1828.742079752707</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.745604232205</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="C13" t="n">
-        <v>313.4007785423227</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="D13" t="n">
-        <v>229.5639405910313</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="E13" t="n">
-        <v>145.8014035964277</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,7 +5200,7 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027736</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628193</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401908</v>
+        <v>530.3256286689339</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693677</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="Y13" t="n">
-        <v>347.745604232205</v>
+        <v>368.0415815981108</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179666</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185756</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527725</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>3103.233995209472</v>
       </c>
       <c r="U14" t="n">
-        <v>2974.776241907152</v>
+        <v>2919.277540790265</v>
       </c>
       <c r="V14" t="n">
-        <v>2974.776241907152</v>
+        <v>2919.277540790265</v>
       </c>
       <c r="W14" t="n">
-        <v>2675.573482021633</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.917152100884</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="Y14" t="n">
-        <v>2033.222718167679</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>317.7028133078929</v>
+        <v>509.0312489714515</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1065660993093</v>
+        <v>472.9238301596411</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1065660993093</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1065660993093</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457735</v>
+        <v>936.0428256245447</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127917</v>
+        <v>936.0428256245447</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901632</v>
+        <v>936.0428256245447</v>
       </c>
       <c r="X16" t="n">
-        <v>582.4303428901632</v>
+        <v>773.7587785537216</v>
       </c>
       <c r="Y16" t="n">
-        <v>431.1145568530004</v>
+        <v>622.4429925165589</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5607,7 +5607,7 @@
         <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5671,19 +5671,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229888</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222407</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960405</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
         <v>974.9038003296503</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099322</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803439</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924234</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5841,13 +5841,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1606.310991511064</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>270.9691711012514</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>435.0968109750512</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133152</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445244</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862324</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162811</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924214</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6020,7 +6020,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6075,16 +6075,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222405</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
@@ -6218,37 +6218,37 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134134</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
         <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375468</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3483.397387236563</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377512</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,16 +6257,16 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,16 +6312,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
         <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
         <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
@@ -6500,10 +6500,10 @@
         <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6546,19 +6546,19 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>579.4156798503576</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517121</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414153</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879677</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
         <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192013</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225747</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904119</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102265</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286442</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988157</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026474</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463661</v>
+        <v>904.3560533993068</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057086</v>
+        <v>601.38072581081</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835474</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J32" t="n">
-        <v>299.6075039955957</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230576</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1257.183244468657</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1908.457237240308</v>
+        <v>1690.805456896584</v>
       </c>
       <c r="N32" t="n">
-        <v>2436.26852087777</v>
+        <v>2218.616740534047</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770098</v>
+        <v>2770.308462001358</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.49561390162</v>
+        <v>3118.495954132879</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3303.341514273828</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908494</v>
+        <v>3325.162335939827</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380769</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696893</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281937</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.47960313175</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946332</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>182.662530460489</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>575.5983691435694</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965119</v>
+        <v>365.67136769297</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918658</v>
+        <v>309.3853606404846</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237452</v>
+        <v>267.6713584245248</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123125</v>
+        <v>226.0316571652528</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546501</v>
+        <v>182.6248332597512</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.2898902407222</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431899</v>
+        <v>86.73045008374169</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074066</v>
+        <v>231.2685546898325</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812064</v>
+        <v>395.3961945636323</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465409</v>
+        <v>693.3398934768794</v>
       </c>
       <c r="N34" t="n">
-        <v>971.03697717775</v>
+        <v>876.5295275080887</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145871</v>
+        <v>1150.88641512478</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1376.562239503601</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.984435873652</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387755</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.10558445183</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501589</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250156</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395503</v>
+        <v>835.7257283273653</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000926</v>
+        <v>666.3144371400684</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124404</v>
+        <v>546.153225804577</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584485</v>
+        <v>436.9602755027458</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6917,22 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129445</v>
@@ -6953,7 +6953,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205777</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7008,10 +7008,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7023,16 +7023,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072669</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462916</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012521</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750519</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133159</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.578023344525</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7178,13 +7178,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7260,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,43 +7339,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7394,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7445,13 +7445,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7491,22 +7491,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,49 +7570,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>270.969171101253</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L43" t="n">
-        <v>435.0968109750528</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133168</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445259</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>967.282790386234</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7807,25 +7807,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>621.3883893133163</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N46" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.1475973587117</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
@@ -7985,10 +7985,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>203.9305743932483</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920139</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837485</v>
+        <v>611.1777065035417</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886033</v>
+        <v>604.1626973083964</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>262.362545598843</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>224.9559198381652</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,22 +8216,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>622.4514377742618</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>502.1429238393148</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>196.5202755941631</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837485</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886033</v>
+        <v>399.644649999577</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431187</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8453,13 +8453,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>271.1401458256686</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>320.6920226450452</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8532,7 +8532,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274122</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8544,13 +8544,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>203.4645300474768</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8781,7 +8781,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9018,7 +9018,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
@@ -9255,10 +9255,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P18" t="n">
-        <v>206.6446779083334</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>228.1998931286865</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,19 +9723,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10194,22 +10194,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>163.9964000092955</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,25 +10428,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>486.9652344155853</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10671,19 +10671,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,19 +10908,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,25 +11139,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>189.8945023282293</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.7701071136281</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>166.9398405160343</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>63.423376926955</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>19.15906303148959</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>147.4921179251044</v>
       </c>
       <c r="U14" t="n">
-        <v>52.24854800937814</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>24.56446962344089</v>
+        <v>61.67840973624632</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>-2.261509625873539e-13</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>956154.1405464031</v>
+        <v>956154.140546403</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>956154.140546403</v>
+        <v>956154.1405464029</v>
       </c>
     </row>
     <row r="7">
@@ -26317,37 +26317,37 @@
         <v>180332.1780933568</v>
       </c>
       <c r="D2" t="n">
-        <v>180332.1780933568</v>
+        <v>180332.1780933567</v>
       </c>
       <c r="E2" t="n">
-        <v>159359.0234244007</v>
+        <v>159359.0234244008</v>
       </c>
       <c r="F2" t="n">
         <v>159359.0234244008</v>
       </c>
       <c r="G2" t="n">
-        <v>180332.1780933568</v>
+        <v>180332.1780933569</v>
       </c>
       <c r="H2" t="n">
         <v>180332.1780933568</v>
       </c>
       <c r="I2" t="n">
+        <v>180332.1780933569</v>
+      </c>
+      <c r="J2" t="n">
         <v>180332.1780933568</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>180332.1780933568</v>
+      </c>
+      <c r="L2" t="n">
         <v>180332.1780933569</v>
-      </c>
-      <c r="K2" t="n">
-        <v>180332.1780933569</v>
-      </c>
-      <c r="L2" t="n">
-        <v>180332.1780933572</v>
       </c>
       <c r="M2" t="n">
         <v>180332.1780933569</v>
       </c>
       <c r="N2" t="n">
-        <v>180332.1780933569</v>
+        <v>180332.1780933568</v>
       </c>
       <c r="O2" t="n">
         <v>180332.1780933569</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062208</v>
+        <v>22558.42953401372</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945023</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728565</v>
+        <v>62456.24177539693</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962316</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277112</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243106</v>
+        <v>173918.2775005338</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243106</v>
+        <v>173918.2775005338</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
@@ -26445,7 +26445,7 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
@@ -26454,10 +26454,10 @@
         <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,7 +26488,7 @@
         <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315419</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-235763.1745628232</v>
+        <v>-232614.823976049</v>
       </c>
       <c r="C6" t="n">
-        <v>-53558.22627096751</v>
+        <v>-58756.16694199415</v>
       </c>
       <c r="D6" t="n">
-        <v>-58421.50856484275</v>
+        <v>-66157.79778823446</v>
       </c>
       <c r="E6" t="n">
-        <v>-80034.0532732218</v>
+        <v>-80243.78481991132</v>
       </c>
       <c r="F6" t="n">
-        <v>32088.50820082281</v>
+        <v>31878.77665413321</v>
       </c>
       <c r="G6" t="n">
-        <v>-47106.32877416449</v>
+        <v>-47106.32877416442</v>
       </c>
       <c r="H6" t="n">
-        <v>318.9967625173667</v>
+        <v>318.9967625175414</v>
       </c>
       <c r="I6" t="n">
-        <v>318.9967625174686</v>
+        <v>318.9967625175195</v>
       </c>
       <c r="J6" t="n">
-        <v>-212722.9208347677</v>
+        <v>-206206.6356801946</v>
       </c>
       <c r="K6" t="n">
-        <v>-5920.771640265339</v>
+        <v>-5920.771640265513</v>
       </c>
       <c r="L6" t="n">
-        <v>-61103.36057488628</v>
+        <v>-65152.19778535891</v>
       </c>
       <c r="M6" t="n">
-        <v>-41881.83269710562</v>
+        <v>-42933.52770829362</v>
       </c>
       <c r="N6" t="n">
-        <v>318.9967625175777</v>
+        <v>318.9967625174613</v>
       </c>
       <c r="O6" t="n">
-        <v>-27448.69728025356</v>
+        <v>-27448.69728025366</v>
       </c>
       <c r="P6" t="n">
-        <v>318.9967625175923</v>
+        <v>318.9967625175486</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,25 +26805,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095198</v>
+        <v>844.4391950293128</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660706</v>
+        <v>78.07030221924616</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551342</v>
+        <v>17.58004954287415</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.7096175534639</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506526</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773705</v>
+        <v>659.3622249971639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407356</v>
+        <v>117.1268713042803</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506526</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,22 +27379,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>289.2107332755083</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,16 +27427,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>145.698063838122</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.702990608980599</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>132.6819913403958</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27591,10 +27591,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>106.5810836214437</v>
+        <v>61.82062936292792</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>311.6666974576372</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>272.9705205393347</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>185.1777423863179</v>
+        <v>75.55601749164518</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>36.40928042339664</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27828,13 +27828,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>7.928653605024465</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>24.0808677298956</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>177.5512089125639</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>17.03354764367629</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>122.1155039541331</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28606,7 +28606,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>37.61298457733328</v>
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668771</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,13 +28752,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>35.71049010668753</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>128.2979821082768</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155845</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,40 +29193,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.636002634528339</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.636002634527912</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>86.65052755599436</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>30.27223765901232</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901181</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
     </row>
     <row r="32">
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J32" t="n">
-        <v>86.27291196566267</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>81.10808140892948</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861253824</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224676</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="35">
@@ -30165,20 +30165,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>28.01250026485208</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30250,7 +30250,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.636002634529518</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2979821082773</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30642,7 +30642,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>128.2979821082784</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,16 +30879,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -33655,7 +33655,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>138.4677594163656</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,10 +34705,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>54.20552279552103</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>169.6749867099541</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.9677666822512</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>469.2032680437701</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>352.5790864152184</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>106.4599287372449</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344366</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344366</v>
+        <v>314.2725371454104</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>128.0817426464313</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>170.39057540412</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940789</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35264,13 +35264,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>110.7769711585879</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35501,7 +35501,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35738,7 +35738,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634528635</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,13 +36048,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437664</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>210.9596397950867</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36288,7 +36288,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835664</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133831</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,7 +36531,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724861</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>531.1349729017807</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700709</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698322</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>73.9360531523773</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215743</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611265</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
@@ -37002,13 +37002,13 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446898</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.3837936917517</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.639782268282</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511626</v>
+        <v>632.624142060021</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184965</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273777</v>
+        <v>75.16693519537692</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>396.9048875586671</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791197</v>
+        <v>82.70543230055114</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496171</v>
+        <v>277.1281693097891</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>227.9553781604258</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>110.6741579516621</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37628,19 +37628,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724877</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.7547461184298</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>210.9596397950883</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R43" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>210.9596397950879</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
